--- a/Total Generated Sheets/Result_Sheet.xlsx
+++ b/Total Generated Sheets/Result_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lol\Desktop\Algo\Project\Results\Total Generated Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lol\Desktop\Algo\Submission\Total Generated Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AABC06E-77C0-4EBF-B383-36112FC550FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E491AE-5614-4C46-ABBB-020E47EB7464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="883" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="883" firstSheet="5" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Result" sheetId="2" r:id="rId1"/>
@@ -30,8 +30,12 @@
     <sheet name="600" sheetId="16" r:id="rId15"/>
     <sheet name="700" sheetId="17" r:id="rId16"/>
     <sheet name="800" sheetId="18" r:id="rId17"/>
+    <sheet name="Transformed Data" sheetId="19" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="5" r:id="rId19"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -49,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="1606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="1612">
   <si>
     <t>N=100, n=?</t>
   </si>
@@ -4867,13 +4871,31 @@
   </si>
   <si>
     <t>Graph_16100</t>
+  </si>
+  <si>
+    <t>IMPORTANT DETAIL</t>
+  </si>
+  <si>
+    <t>In order to insert a suggestion that uses a PivotTable or formula, your data was organized in columns with a single header row.</t>
+  </si>
+  <si>
+    <t>Field1</t>
+  </si>
+  <si>
+    <t>Field2</t>
+  </si>
+  <si>
+    <t>Count of Field2</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4890,6 +4912,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4472C4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4951,14 +4987,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11417,6 +11457,504 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jimi Mehta" refreshedDate="45033.020402199072" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="100" xr:uid="{11837290-FBC5-4FF7-A0A9-8BF88D636591}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="C6:D106" sheet="Transformed Data"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Field1" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="50" maxValue="50"/>
+    </cacheField>
+    <cacheField name="Field2" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="7" count="5">
+        <n v="5"/>
+        <n v="4"/>
+        <n v="6"/>
+        <n v="3"/>
+        <n v="7"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="100">
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="4"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D294672C-3619-4072-919A-5DE03B9512CF}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="G7:H13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="descending">
+      <items count="6">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Field2" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -11740,8 +12278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C96B45-0BB6-495F-9BEF-7CA17B1D2CA7}">
   <dimension ref="B2:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11750,244 +12288,244 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="5">
         <v>25</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="5">
         <v>50</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="5">
         <v>75</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="5">
         <v>100</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="5">
         <v>125</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="5">
         <v>150</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="5">
         <v>175</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="5">
         <v>200</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="5">
         <v>3.99</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
         <v>5.21</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="5">
         <v>5.86</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="5">
         <v>6.56</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="5">
         <v>7.08</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="5">
         <v>7.59</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="5">
         <v>7.94</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="5">
         <v>8.26</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="5">
         <v>50</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="5">
         <v>100</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="5">
         <v>150</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="5">
         <v>200</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="5">
         <v>250</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="5">
         <v>300</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="5">
         <v>350</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="5">
         <v>400</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="5">
         <v>5.21</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="5">
         <v>6.56</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="5">
         <v>7.59</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="5">
         <v>8.26</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="5">
         <v>9.07</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="5">
         <v>9.5299999999999994</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="5">
         <v>10.11</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="5">
         <v>10.36</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="5">
         <v>100</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="5">
         <v>200</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="5">
         <v>300</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="5">
         <v>400</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="5">
         <v>500</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="5">
         <v>600</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="5">
         <v>700</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J49" s="5">
         <v>800</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="5">
         <v>6.56</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="5">
         <v>8.26</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="5">
         <v>9.5299999999999994</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="5">
         <v>10.36</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="5">
         <v>11.22</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="5">
         <v>12.27</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="5">
         <v>12.62</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J51" s="5">
         <v>13.08</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="54">
@@ -12006,7 +12544,6 @@
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
     <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G25:G26"/>
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="I25:I26"/>
     <mergeCell ref="G49:G50"/>
@@ -12027,6 +12564,7 @@
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
@@ -21128,8 +21666,4295 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254F28C7-A04B-4682-A147-D1758931CFF8}">
+  <dimension ref="B2:H106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>1609</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8" s="6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1611</v>
+      </c>
+      <c r="H13" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>50</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>50</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>50</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>50</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>50</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>50</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>50</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>50</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>50</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>50</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>50</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>50</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>50</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>50</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>50</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>50</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>50</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>50</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>50</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>50</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>50</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>50</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>50</v>
+      </c>
+      <c r="D40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>50</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>50</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>50</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>50</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>50</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>50</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>50</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>50</v>
+      </c>
+      <c r="D48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>50</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <v>50</v>
+      </c>
+      <c r="D50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <v>50</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <v>50</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>50</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <v>50</v>
+      </c>
+      <c r="D54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <v>50</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <v>50</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <v>50</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <v>50</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <v>50</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>50</v>
+      </c>
+      <c r="D60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <v>50</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <v>50</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C63">
+        <v>50</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C64">
+        <v>50</v>
+      </c>
+      <c r="D64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <v>50</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>50</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <v>50</v>
+      </c>
+      <c r="D67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <v>50</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C69">
+        <v>50</v>
+      </c>
+      <c r="D69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C70">
+        <v>50</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C71">
+        <v>50</v>
+      </c>
+      <c r="D71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C72">
+        <v>50</v>
+      </c>
+      <c r="D72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C73">
+        <v>50</v>
+      </c>
+      <c r="D73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C74">
+        <v>50</v>
+      </c>
+      <c r="D74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C75">
+        <v>50</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C76">
+        <v>50</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C77">
+        <v>50</v>
+      </c>
+      <c r="D77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C78">
+        <v>50</v>
+      </c>
+      <c r="D78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C79">
+        <v>50</v>
+      </c>
+      <c r="D79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C80">
+        <v>50</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C81">
+        <v>50</v>
+      </c>
+      <c r="D81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C82">
+        <v>50</v>
+      </c>
+      <c r="D82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C83">
+        <v>50</v>
+      </c>
+      <c r="D83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C84">
+        <v>50</v>
+      </c>
+      <c r="D84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C85">
+        <v>50</v>
+      </c>
+      <c r="D85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C86">
+        <v>50</v>
+      </c>
+      <c r="D86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C87">
+        <v>50</v>
+      </c>
+      <c r="D87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C88">
+        <v>50</v>
+      </c>
+      <c r="D88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C89">
+        <v>50</v>
+      </c>
+      <c r="D89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C90">
+        <v>50</v>
+      </c>
+      <c r="D90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C91">
+        <v>50</v>
+      </c>
+      <c r="D91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C92">
+        <v>50</v>
+      </c>
+      <c r="D92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C93">
+        <v>50</v>
+      </c>
+      <c r="D93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C94">
+        <v>50</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C95">
+        <v>50</v>
+      </c>
+      <c r="D95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C96">
+        <v>50</v>
+      </c>
+      <c r="D96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C97">
+        <v>50</v>
+      </c>
+      <c r="D97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C98">
+        <v>50</v>
+      </c>
+      <c r="D98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C99">
+        <v>50</v>
+      </c>
+      <c r="D99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C100">
+        <v>50</v>
+      </c>
+      <c r="D100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C101">
+        <v>50</v>
+      </c>
+      <c r="D101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C102">
+        <v>50</v>
+      </c>
+      <c r="D102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C103">
+        <v>50</v>
+      </c>
+      <c r="D103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C104">
+        <v>50</v>
+      </c>
+      <c r="D104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C105">
+        <v>50</v>
+      </c>
+      <c r="D105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C106">
+        <v>50</v>
+      </c>
+      <c r="D106">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45363D90-8044-4AC6-9B8D-AA2A6BCDBB3F}">
+  <dimension ref="A1:C102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>25</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>25</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>25</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>25</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>25</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>25</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>25</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>25</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>25</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>25</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>25</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>25</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>25</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>25</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>25</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>25</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>25</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>25</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>25</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>25</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <v>25</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <v>25</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50">
+        <v>25</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51">
+        <v>25</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>25</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53">
+        <v>25</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54">
+        <v>25</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55">
+        <v>25</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56">
+        <v>25</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57">
+        <v>25</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58">
+        <v>25</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59">
+        <v>25</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60">
+        <v>25</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61">
+        <v>25</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62">
+        <v>25</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63">
+        <v>25</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64">
+        <v>25</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65">
+        <v>25</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66">
+        <v>25</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67">
+        <v>25</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68">
+        <v>25</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69">
+        <v>25</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70">
+        <v>25</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71">
+        <v>25</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72">
+        <v>25</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73">
+        <v>25</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74">
+        <v>25</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75">
+        <v>25</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76">
+        <v>25</v>
+      </c>
+      <c r="C76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77">
+        <v>25</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78">
+        <v>25</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79">
+        <v>25</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80">
+        <v>25</v>
+      </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81">
+        <v>25</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82">
+        <v>25</v>
+      </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83">
+        <v>25</v>
+      </c>
+      <c r="C83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84">
+        <v>25</v>
+      </c>
+      <c r="C84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85">
+        <v>25</v>
+      </c>
+      <c r="C85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86">
+        <v>25</v>
+      </c>
+      <c r="C86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87">
+        <v>25</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88">
+        <v>25</v>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89">
+        <v>25</v>
+      </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90">
+        <v>25</v>
+      </c>
+      <c r="C90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91">
+        <v>25</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92">
+        <v>25</v>
+      </c>
+      <c r="C92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93">
+        <v>25</v>
+      </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94">
+        <v>25</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95">
+        <v>25</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96">
+        <v>25</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97">
+        <v>25</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98">
+        <v>25</v>
+      </c>
+      <c r="C98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99">
+        <v>25</v>
+      </c>
+      <c r="C99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100">
+        <v>25</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101">
+        <v>25</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+      <c r="C102">
+        <f>AVERAGE(C2:C101)</f>
+        <v>3.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E903DD-DD10-4E57-BE12-AA2F4F2C743B}">
+  <dimension ref="A1:C102"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18">
+        <v>50</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19">
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20">
+        <v>50</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22">
+        <v>50</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23">
+        <v>50</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24">
+        <v>50</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25">
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26">
+        <v>50</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27">
+        <v>50</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28">
+        <v>50</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29">
+        <v>50</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30">
+        <v>50</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31">
+        <v>50</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32">
+        <v>50</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33">
+        <v>50</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34">
+        <v>50</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35">
+        <v>50</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36">
+        <v>50</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37">
+        <v>50</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38">
+        <v>50</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39">
+        <v>50</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40">
+        <v>50</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41">
+        <v>50</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42">
+        <v>50</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>147</v>
+      </c>
+      <c r="B43">
+        <v>50</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44">
+        <v>50</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45">
+        <v>50</v>
+      </c>
+      <c r="C45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46">
+        <v>50</v>
+      </c>
+      <c r="C46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47">
+        <v>50</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48">
+        <v>50</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>153</v>
+      </c>
+      <c r="B49">
+        <v>50</v>
+      </c>
+      <c r="C49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>154</v>
+      </c>
+      <c r="B50">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>155</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53">
+        <v>50</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>158</v>
+      </c>
+      <c r="B54">
+        <v>50</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>159</v>
+      </c>
+      <c r="B55">
+        <v>50</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56">
+        <v>50</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>161</v>
+      </c>
+      <c r="B57">
+        <v>50</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>162</v>
+      </c>
+      <c r="B58">
+        <v>50</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>163</v>
+      </c>
+      <c r="B59">
+        <v>50</v>
+      </c>
+      <c r="C59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>164</v>
+      </c>
+      <c r="B60">
+        <v>50</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>165</v>
+      </c>
+      <c r="B61">
+        <v>50</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>166</v>
+      </c>
+      <c r="B62">
+        <v>50</v>
+      </c>
+      <c r="C62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>167</v>
+      </c>
+      <c r="B63">
+        <v>50</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>168</v>
+      </c>
+      <c r="B64">
+        <v>50</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>169</v>
+      </c>
+      <c r="B65">
+        <v>50</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>170</v>
+      </c>
+      <c r="B66">
+        <v>50</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>171</v>
+      </c>
+      <c r="B67">
+        <v>50</v>
+      </c>
+      <c r="C67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>172</v>
+      </c>
+      <c r="B68">
+        <v>50</v>
+      </c>
+      <c r="C68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>173</v>
+      </c>
+      <c r="B69">
+        <v>50</v>
+      </c>
+      <c r="C69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>174</v>
+      </c>
+      <c r="B70">
+        <v>50</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>175</v>
+      </c>
+      <c r="B71">
+        <v>50</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>176</v>
+      </c>
+      <c r="B72">
+        <v>50</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>177</v>
+      </c>
+      <c r="B73">
+        <v>50</v>
+      </c>
+      <c r="C73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>178</v>
+      </c>
+      <c r="B74">
+        <v>50</v>
+      </c>
+      <c r="C74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>179</v>
+      </c>
+      <c r="B75">
+        <v>50</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>180</v>
+      </c>
+      <c r="B76">
+        <v>50</v>
+      </c>
+      <c r="C76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>181</v>
+      </c>
+      <c r="B77">
+        <v>50</v>
+      </c>
+      <c r="C77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>182</v>
+      </c>
+      <c r="B78">
+        <v>50</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>183</v>
+      </c>
+      <c r="B79">
+        <v>50</v>
+      </c>
+      <c r="C79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>184</v>
+      </c>
+      <c r="B80">
+        <v>50</v>
+      </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>185</v>
+      </c>
+      <c r="B81">
+        <v>50</v>
+      </c>
+      <c r="C81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>186</v>
+      </c>
+      <c r="B82">
+        <v>50</v>
+      </c>
+      <c r="C82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>187</v>
+      </c>
+      <c r="B83">
+        <v>50</v>
+      </c>
+      <c r="C83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>188</v>
+      </c>
+      <c r="B84">
+        <v>50</v>
+      </c>
+      <c r="C84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>189</v>
+      </c>
+      <c r="B85">
+        <v>50</v>
+      </c>
+      <c r="C85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>190</v>
+      </c>
+      <c r="B86">
+        <v>50</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>191</v>
+      </c>
+      <c r="B87">
+        <v>50</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>192</v>
+      </c>
+      <c r="B88">
+        <v>50</v>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>193</v>
+      </c>
+      <c r="B89">
+        <v>50</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>194</v>
+      </c>
+      <c r="B90">
+        <v>50</v>
+      </c>
+      <c r="C90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>195</v>
+      </c>
+      <c r="B91">
+        <v>50</v>
+      </c>
+      <c r="C91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>196</v>
+      </c>
+      <c r="B92">
+        <v>50</v>
+      </c>
+      <c r="C92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>197</v>
+      </c>
+      <c r="B93">
+        <v>50</v>
+      </c>
+      <c r="C93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>198</v>
+      </c>
+      <c r="B94">
+        <v>50</v>
+      </c>
+      <c r="C94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>199</v>
+      </c>
+      <c r="B95">
+        <v>50</v>
+      </c>
+      <c r="C95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>200</v>
+      </c>
+      <c r="B96">
+        <v>50</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>201</v>
+      </c>
+      <c r="B97">
+        <v>50</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>202</v>
+      </c>
+      <c r="B98">
+        <v>50</v>
+      </c>
+      <c r="C98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>203</v>
+      </c>
+      <c r="B99">
+        <v>50</v>
+      </c>
+      <c r="C99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>204</v>
+      </c>
+      <c r="B100">
+        <v>50</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>205</v>
+      </c>
+      <c r="B101">
+        <v>50</v>
+      </c>
+      <c r="C101">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+      <c r="C102">
+        <f>AVERAGE(C2:C101)</f>
+        <v>5.21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E341D5C-C7AA-4732-8307-18B4F6565E34}">
+  <dimension ref="A1:C102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2">
+        <v>75</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3">
+        <v>75</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4">
+        <v>75</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5">
+        <v>75</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6">
+        <v>75</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7">
+        <v>75</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8">
+        <v>75</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B9">
+        <v>75</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B10">
+        <v>75</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B11">
+        <v>75</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B12">
+        <v>75</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B13">
+        <v>75</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>218</v>
+      </c>
+      <c r="B14">
+        <v>75</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>219</v>
+      </c>
+      <c r="B15">
+        <v>75</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16">
+        <v>75</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>221</v>
+      </c>
+      <c r="B17">
+        <v>75</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>222</v>
+      </c>
+      <c r="B18">
+        <v>75</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>223</v>
+      </c>
+      <c r="B19">
+        <v>75</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B20">
+        <v>75</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>225</v>
+      </c>
+      <c r="B21">
+        <v>75</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>226</v>
+      </c>
+      <c r="B22">
+        <v>75</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>227</v>
+      </c>
+      <c r="B23">
+        <v>75</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>228</v>
+      </c>
+      <c r="B24">
+        <v>75</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>229</v>
+      </c>
+      <c r="B25">
+        <v>75</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>230</v>
+      </c>
+      <c r="B26">
+        <v>75</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>231</v>
+      </c>
+      <c r="B27">
+        <v>75</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>232</v>
+      </c>
+      <c r="B28">
+        <v>75</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>233</v>
+      </c>
+      <c r="B29">
+        <v>75</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>234</v>
+      </c>
+      <c r="B30">
+        <v>75</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>235</v>
+      </c>
+      <c r="B31">
+        <v>75</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>236</v>
+      </c>
+      <c r="B32">
+        <v>75</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>237</v>
+      </c>
+      <c r="B33">
+        <v>75</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>238</v>
+      </c>
+      <c r="B34">
+        <v>75</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>239</v>
+      </c>
+      <c r="B35">
+        <v>75</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>240</v>
+      </c>
+      <c r="B36">
+        <v>75</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>241</v>
+      </c>
+      <c r="B37">
+        <v>75</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>242</v>
+      </c>
+      <c r="B38">
+        <v>75</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>243</v>
+      </c>
+      <c r="B39">
+        <v>75</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>244</v>
+      </c>
+      <c r="B40">
+        <v>75</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>245</v>
+      </c>
+      <c r="B41">
+        <v>75</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>246</v>
+      </c>
+      <c r="B42">
+        <v>75</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>247</v>
+      </c>
+      <c r="B43">
+        <v>75</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>248</v>
+      </c>
+      <c r="B44">
+        <v>75</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>249</v>
+      </c>
+      <c r="B45">
+        <v>75</v>
+      </c>
+      <c r="C45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>250</v>
+      </c>
+      <c r="B46">
+        <v>75</v>
+      </c>
+      <c r="C46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>251</v>
+      </c>
+      <c r="B47">
+        <v>75</v>
+      </c>
+      <c r="C47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>252</v>
+      </c>
+      <c r="B48">
+        <v>75</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>253</v>
+      </c>
+      <c r="B49">
+        <v>75</v>
+      </c>
+      <c r="C49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>254</v>
+      </c>
+      <c r="B50">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>255</v>
+      </c>
+      <c r="B51">
+        <v>75</v>
+      </c>
+      <c r="C51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>256</v>
+      </c>
+      <c r="B52">
+        <v>75</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>257</v>
+      </c>
+      <c r="B53">
+        <v>75</v>
+      </c>
+      <c r="C53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>258</v>
+      </c>
+      <c r="B54">
+        <v>75</v>
+      </c>
+      <c r="C54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>259</v>
+      </c>
+      <c r="B55">
+        <v>75</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>260</v>
+      </c>
+      <c r="B56">
+        <v>75</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>261</v>
+      </c>
+      <c r="B57">
+        <v>75</v>
+      </c>
+      <c r="C57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>262</v>
+      </c>
+      <c r="B58">
+        <v>75</v>
+      </c>
+      <c r="C58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>263</v>
+      </c>
+      <c r="B59">
+        <v>75</v>
+      </c>
+      <c r="C59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>264</v>
+      </c>
+      <c r="B60">
+        <v>75</v>
+      </c>
+      <c r="C60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>265</v>
+      </c>
+      <c r="B61">
+        <v>75</v>
+      </c>
+      <c r="C61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>266</v>
+      </c>
+      <c r="B62">
+        <v>75</v>
+      </c>
+      <c r="C62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>267</v>
+      </c>
+      <c r="B63">
+        <v>75</v>
+      </c>
+      <c r="C63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>268</v>
+      </c>
+      <c r="B64">
+        <v>75</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>269</v>
+      </c>
+      <c r="B65">
+        <v>75</v>
+      </c>
+      <c r="C65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>270</v>
+      </c>
+      <c r="B66">
+        <v>75</v>
+      </c>
+      <c r="C66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>271</v>
+      </c>
+      <c r="B67">
+        <v>75</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>272</v>
+      </c>
+      <c r="B68">
+        <v>75</v>
+      </c>
+      <c r="C68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>273</v>
+      </c>
+      <c r="B69">
+        <v>75</v>
+      </c>
+      <c r="C69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>274</v>
+      </c>
+      <c r="B70">
+        <v>75</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>275</v>
+      </c>
+      <c r="B71">
+        <v>75</v>
+      </c>
+      <c r="C71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>276</v>
+      </c>
+      <c r="B72">
+        <v>75</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>277</v>
+      </c>
+      <c r="B73">
+        <v>75</v>
+      </c>
+      <c r="C73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>278</v>
+      </c>
+      <c r="B74">
+        <v>75</v>
+      </c>
+      <c r="C74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>279</v>
+      </c>
+      <c r="B75">
+        <v>75</v>
+      </c>
+      <c r="C75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>280</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>281</v>
+      </c>
+      <c r="B77">
+        <v>75</v>
+      </c>
+      <c r="C77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>282</v>
+      </c>
+      <c r="B78">
+        <v>75</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>283</v>
+      </c>
+      <c r="B79">
+        <v>75</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>284</v>
+      </c>
+      <c r="B80">
+        <v>75</v>
+      </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>285</v>
+      </c>
+      <c r="B81">
+        <v>75</v>
+      </c>
+      <c r="C81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>286</v>
+      </c>
+      <c r="B82">
+        <v>75</v>
+      </c>
+      <c r="C82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>287</v>
+      </c>
+      <c r="B83">
+        <v>75</v>
+      </c>
+      <c r="C83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>288</v>
+      </c>
+      <c r="B84">
+        <v>75</v>
+      </c>
+      <c r="C84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>289</v>
+      </c>
+      <c r="B85">
+        <v>75</v>
+      </c>
+      <c r="C85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>290</v>
+      </c>
+      <c r="B86">
+        <v>75</v>
+      </c>
+      <c r="C86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>291</v>
+      </c>
+      <c r="B87">
+        <v>75</v>
+      </c>
+      <c r="C87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>292</v>
+      </c>
+      <c r="B88">
+        <v>75</v>
+      </c>
+      <c r="C88">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>293</v>
+      </c>
+      <c r="B89">
+        <v>75</v>
+      </c>
+      <c r="C89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>294</v>
+      </c>
+      <c r="B90">
+        <v>75</v>
+      </c>
+      <c r="C90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>295</v>
+      </c>
+      <c r="B91">
+        <v>75</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>296</v>
+      </c>
+      <c r="B92">
+        <v>75</v>
+      </c>
+      <c r="C92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>297</v>
+      </c>
+      <c r="B93">
+        <v>75</v>
+      </c>
+      <c r="C93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>298</v>
+      </c>
+      <c r="B94">
+        <v>75</v>
+      </c>
+      <c r="C94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>299</v>
+      </c>
+      <c r="B95">
+        <v>75</v>
+      </c>
+      <c r="C95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>300</v>
+      </c>
+      <c r="B96">
+        <v>75</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>301</v>
+      </c>
+      <c r="B97">
+        <v>75</v>
+      </c>
+      <c r="C97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>302</v>
+      </c>
+      <c r="B98">
+        <v>75</v>
+      </c>
+      <c r="C98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>303</v>
+      </c>
+      <c r="B99">
+        <v>75</v>
+      </c>
+      <c r="C99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>304</v>
+      </c>
+      <c r="B100">
+        <v>75</v>
+      </c>
+      <c r="C100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>305</v>
+      </c>
+      <c r="B101">
+        <v>75</v>
+      </c>
+      <c r="C101">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+      <c r="C102">
+        <f>AVERAGE(C2:C101)</f>
+        <v>5.86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E987BB4-246A-4AFD-B018-A5EE5BB763AF}">
   <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView topLeftCell="A85" workbookViewId="0">
@@ -21151,3411 +25976,6 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>25</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>25</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>25</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>25</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>25</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>25</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>25</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>25</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>25</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>25</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>25</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>25</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>25</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <v>25</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>25</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>25</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
-        <v>25</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19">
-        <v>25</v>
-      </c>
-      <c r="C19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>25</v>
-      </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>25</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22">
-        <v>25</v>
-      </c>
-      <c r="C22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23">
-        <v>25</v>
-      </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24">
-        <v>25</v>
-      </c>
-      <c r="C24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25">
-        <v>25</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26">
-        <v>25</v>
-      </c>
-      <c r="C26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27">
-        <v>25</v>
-      </c>
-      <c r="C27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28">
-        <v>25</v>
-      </c>
-      <c r="C28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29">
-        <v>25</v>
-      </c>
-      <c r="C29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30">
-        <v>25</v>
-      </c>
-      <c r="C30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31">
-        <v>25</v>
-      </c>
-      <c r="C31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32">
-        <v>25</v>
-      </c>
-      <c r="C32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33">
-        <v>25</v>
-      </c>
-      <c r="C33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34">
-        <v>25</v>
-      </c>
-      <c r="C34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35">
-        <v>25</v>
-      </c>
-      <c r="C35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36">
-        <v>25</v>
-      </c>
-      <c r="C36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37">
-        <v>25</v>
-      </c>
-      <c r="C37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38">
-        <v>25</v>
-      </c>
-      <c r="C38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39">
-        <v>25</v>
-      </c>
-      <c r="C39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40">
-        <v>25</v>
-      </c>
-      <c r="C40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41">
-        <v>25</v>
-      </c>
-      <c r="C41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42">
-        <v>25</v>
-      </c>
-      <c r="C42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43">
-        <v>25</v>
-      </c>
-      <c r="C43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44">
-        <v>25</v>
-      </c>
-      <c r="C44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45">
-        <v>25</v>
-      </c>
-      <c r="C45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46">
-        <v>25</v>
-      </c>
-      <c r="C46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47">
-        <v>25</v>
-      </c>
-      <c r="C47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48">
-        <v>25</v>
-      </c>
-      <c r="C48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49">
-        <v>25</v>
-      </c>
-      <c r="C49">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50">
-        <v>25</v>
-      </c>
-      <c r="C50">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51">
-        <v>25</v>
-      </c>
-      <c r="C51">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52">
-        <v>25</v>
-      </c>
-      <c r="C52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53">
-        <v>25</v>
-      </c>
-      <c r="C53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54">
-        <v>25</v>
-      </c>
-      <c r="C54">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55">
-        <v>25</v>
-      </c>
-      <c r="C55">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56">
-        <v>25</v>
-      </c>
-      <c r="C56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57">
-        <v>25</v>
-      </c>
-      <c r="C57">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58">
-        <v>25</v>
-      </c>
-      <c r="C58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59">
-        <v>25</v>
-      </c>
-      <c r="C59">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60">
-        <v>25</v>
-      </c>
-      <c r="C60">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>64</v>
-      </c>
-      <c r="B61">
-        <v>25</v>
-      </c>
-      <c r="C61">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62">
-        <v>25</v>
-      </c>
-      <c r="C62">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>66</v>
-      </c>
-      <c r="B63">
-        <v>25</v>
-      </c>
-      <c r="C63">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>67</v>
-      </c>
-      <c r="B64">
-        <v>25</v>
-      </c>
-      <c r="C64">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65">
-        <v>25</v>
-      </c>
-      <c r="C65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66">
-        <v>25</v>
-      </c>
-      <c r="C66">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67">
-        <v>25</v>
-      </c>
-      <c r="C67">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>71</v>
-      </c>
-      <c r="B68">
-        <v>25</v>
-      </c>
-      <c r="C68">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69">
-        <v>25</v>
-      </c>
-      <c r="C69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70">
-        <v>25</v>
-      </c>
-      <c r="C70">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71">
-        <v>25</v>
-      </c>
-      <c r="C71">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>75</v>
-      </c>
-      <c r="B72">
-        <v>25</v>
-      </c>
-      <c r="C72">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>76</v>
-      </c>
-      <c r="B73">
-        <v>25</v>
-      </c>
-      <c r="C73">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>77</v>
-      </c>
-      <c r="B74">
-        <v>25</v>
-      </c>
-      <c r="C74">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>78</v>
-      </c>
-      <c r="B75">
-        <v>25</v>
-      </c>
-      <c r="C75">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>79</v>
-      </c>
-      <c r="B76">
-        <v>25</v>
-      </c>
-      <c r="C76">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>80</v>
-      </c>
-      <c r="B77">
-        <v>25</v>
-      </c>
-      <c r="C77">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>81</v>
-      </c>
-      <c r="B78">
-        <v>25</v>
-      </c>
-      <c r="C78">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>82</v>
-      </c>
-      <c r="B79">
-        <v>25</v>
-      </c>
-      <c r="C79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>83</v>
-      </c>
-      <c r="B80">
-        <v>25</v>
-      </c>
-      <c r="C80">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>84</v>
-      </c>
-      <c r="B81">
-        <v>25</v>
-      </c>
-      <c r="C81">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>85</v>
-      </c>
-      <c r="B82">
-        <v>25</v>
-      </c>
-      <c r="C82">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>86</v>
-      </c>
-      <c r="B83">
-        <v>25</v>
-      </c>
-      <c r="C83">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>87</v>
-      </c>
-      <c r="B84">
-        <v>25</v>
-      </c>
-      <c r="C84">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>88</v>
-      </c>
-      <c r="B85">
-        <v>25</v>
-      </c>
-      <c r="C85">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>89</v>
-      </c>
-      <c r="B86">
-        <v>25</v>
-      </c>
-      <c r="C86">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>90</v>
-      </c>
-      <c r="B87">
-        <v>25</v>
-      </c>
-      <c r="C87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>91</v>
-      </c>
-      <c r="B88">
-        <v>25</v>
-      </c>
-      <c r="C88">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>92</v>
-      </c>
-      <c r="B89">
-        <v>25</v>
-      </c>
-      <c r="C89">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>93</v>
-      </c>
-      <c r="B90">
-        <v>25</v>
-      </c>
-      <c r="C90">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>94</v>
-      </c>
-      <c r="B91">
-        <v>25</v>
-      </c>
-      <c r="C91">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>95</v>
-      </c>
-      <c r="B92">
-        <v>25</v>
-      </c>
-      <c r="C92">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>96</v>
-      </c>
-      <c r="B93">
-        <v>25</v>
-      </c>
-      <c r="C93">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>97</v>
-      </c>
-      <c r="B94">
-        <v>25</v>
-      </c>
-      <c r="C94">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>98</v>
-      </c>
-      <c r="B95">
-        <v>25</v>
-      </c>
-      <c r="C95">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>99</v>
-      </c>
-      <c r="B96">
-        <v>25</v>
-      </c>
-      <c r="C96">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>100</v>
-      </c>
-      <c r="B97">
-        <v>25</v>
-      </c>
-      <c r="C97">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>101</v>
-      </c>
-      <c r="B98">
-        <v>25</v>
-      </c>
-      <c r="C98">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>102</v>
-      </c>
-      <c r="B99">
-        <v>25</v>
-      </c>
-      <c r="C99">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>103</v>
-      </c>
-      <c r="B100">
-        <v>25</v>
-      </c>
-      <c r="C100">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>104</v>
-      </c>
-      <c r="B101">
-        <v>25</v>
-      </c>
-      <c r="C101">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>105</v>
-      </c>
-      <c r="C102">
-        <f>AVERAGE(C2:C101)</f>
-        <v>3.99</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E903DD-DD10-4E57-BE12-AA2F4F2C743B}">
-  <dimension ref="A1:C102"/>
-  <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2">
-        <v>50</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3">
-        <v>50</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4">
-        <v>50</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5">
-        <v>50</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6">
-        <v>50</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7">
-        <v>50</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8">
-        <v>50</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B9">
-        <v>50</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10">
-        <v>50</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11">
-        <v>50</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12">
-        <v>50</v>
-      </c>
-      <c r="C12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13">
-        <v>50</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14">
-        <v>50</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15">
-        <v>50</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16">
-        <v>50</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17">
-        <v>50</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18">
-        <v>50</v>
-      </c>
-      <c r="C18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19">
-        <v>50</v>
-      </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>124</v>
-      </c>
-      <c r="B20">
-        <v>50</v>
-      </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21">
-        <v>50</v>
-      </c>
-      <c r="C21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>126</v>
-      </c>
-      <c r="B22">
-        <v>50</v>
-      </c>
-      <c r="C22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23">
-        <v>50</v>
-      </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>128</v>
-      </c>
-      <c r="B24">
-        <v>50</v>
-      </c>
-      <c r="C24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25">
-        <v>50</v>
-      </c>
-      <c r="C25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>130</v>
-      </c>
-      <c r="B26">
-        <v>50</v>
-      </c>
-      <c r="C26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>131</v>
-      </c>
-      <c r="B27">
-        <v>50</v>
-      </c>
-      <c r="C27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>132</v>
-      </c>
-      <c r="B28">
-        <v>50</v>
-      </c>
-      <c r="C28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>133</v>
-      </c>
-      <c r="B29">
-        <v>50</v>
-      </c>
-      <c r="C29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>134</v>
-      </c>
-      <c r="B30">
-        <v>50</v>
-      </c>
-      <c r="C30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>135</v>
-      </c>
-      <c r="B31">
-        <v>50</v>
-      </c>
-      <c r="C31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>136</v>
-      </c>
-      <c r="B32">
-        <v>50</v>
-      </c>
-      <c r="C32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>137</v>
-      </c>
-      <c r="B33">
-        <v>50</v>
-      </c>
-      <c r="C33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>138</v>
-      </c>
-      <c r="B34">
-        <v>50</v>
-      </c>
-      <c r="C34">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>139</v>
-      </c>
-      <c r="B35">
-        <v>50</v>
-      </c>
-      <c r="C35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>140</v>
-      </c>
-      <c r="B36">
-        <v>50</v>
-      </c>
-      <c r="C36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>141</v>
-      </c>
-      <c r="B37">
-        <v>50</v>
-      </c>
-      <c r="C37">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>142</v>
-      </c>
-      <c r="B38">
-        <v>50</v>
-      </c>
-      <c r="C38">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>143</v>
-      </c>
-      <c r="B39">
-        <v>50</v>
-      </c>
-      <c r="C39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>144</v>
-      </c>
-      <c r="B40">
-        <v>50</v>
-      </c>
-      <c r="C40">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>145</v>
-      </c>
-      <c r="B41">
-        <v>50</v>
-      </c>
-      <c r="C41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>146</v>
-      </c>
-      <c r="B42">
-        <v>50</v>
-      </c>
-      <c r="C42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>147</v>
-      </c>
-      <c r="B43">
-        <v>50</v>
-      </c>
-      <c r="C43">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>148</v>
-      </c>
-      <c r="B44">
-        <v>50</v>
-      </c>
-      <c r="C44">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>149</v>
-      </c>
-      <c r="B45">
-        <v>50</v>
-      </c>
-      <c r="C45">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>150</v>
-      </c>
-      <c r="B46">
-        <v>50</v>
-      </c>
-      <c r="C46">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>151</v>
-      </c>
-      <c r="B47">
-        <v>50</v>
-      </c>
-      <c r="C47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>152</v>
-      </c>
-      <c r="B48">
-        <v>50</v>
-      </c>
-      <c r="C48">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>153</v>
-      </c>
-      <c r="B49">
-        <v>50</v>
-      </c>
-      <c r="C49">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>154</v>
-      </c>
-      <c r="B50">
-        <v>50</v>
-      </c>
-      <c r="C50">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>155</v>
-      </c>
-      <c r="B51">
-        <v>50</v>
-      </c>
-      <c r="C51">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>156</v>
-      </c>
-      <c r="B52">
-        <v>50</v>
-      </c>
-      <c r="C52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>157</v>
-      </c>
-      <c r="B53">
-        <v>50</v>
-      </c>
-      <c r="C53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>158</v>
-      </c>
-      <c r="B54">
-        <v>50</v>
-      </c>
-      <c r="C54">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>159</v>
-      </c>
-      <c r="B55">
-        <v>50</v>
-      </c>
-      <c r="C55">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>160</v>
-      </c>
-      <c r="B56">
-        <v>50</v>
-      </c>
-      <c r="C56">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>161</v>
-      </c>
-      <c r="B57">
-        <v>50</v>
-      </c>
-      <c r="C57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>162</v>
-      </c>
-      <c r="B58">
-        <v>50</v>
-      </c>
-      <c r="C58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>163</v>
-      </c>
-      <c r="B59">
-        <v>50</v>
-      </c>
-      <c r="C59">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>164</v>
-      </c>
-      <c r="B60">
-        <v>50</v>
-      </c>
-      <c r="C60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>165</v>
-      </c>
-      <c r="B61">
-        <v>50</v>
-      </c>
-      <c r="C61">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>166</v>
-      </c>
-      <c r="B62">
-        <v>50</v>
-      </c>
-      <c r="C62">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>167</v>
-      </c>
-      <c r="B63">
-        <v>50</v>
-      </c>
-      <c r="C63">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>168</v>
-      </c>
-      <c r="B64">
-        <v>50</v>
-      </c>
-      <c r="C64">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>169</v>
-      </c>
-      <c r="B65">
-        <v>50</v>
-      </c>
-      <c r="C65">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>170</v>
-      </c>
-      <c r="B66">
-        <v>50</v>
-      </c>
-      <c r="C66">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>171</v>
-      </c>
-      <c r="B67">
-        <v>50</v>
-      </c>
-      <c r="C67">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>172</v>
-      </c>
-      <c r="B68">
-        <v>50</v>
-      </c>
-      <c r="C68">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>173</v>
-      </c>
-      <c r="B69">
-        <v>50</v>
-      </c>
-      <c r="C69">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>174</v>
-      </c>
-      <c r="B70">
-        <v>50</v>
-      </c>
-      <c r="C70">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>175</v>
-      </c>
-      <c r="B71">
-        <v>50</v>
-      </c>
-      <c r="C71">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>176</v>
-      </c>
-      <c r="B72">
-        <v>50</v>
-      </c>
-      <c r="C72">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>177</v>
-      </c>
-      <c r="B73">
-        <v>50</v>
-      </c>
-      <c r="C73">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>178</v>
-      </c>
-      <c r="B74">
-        <v>50</v>
-      </c>
-      <c r="C74">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>179</v>
-      </c>
-      <c r="B75">
-        <v>50</v>
-      </c>
-      <c r="C75">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>180</v>
-      </c>
-      <c r="B76">
-        <v>50</v>
-      </c>
-      <c r="C76">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>181</v>
-      </c>
-      <c r="B77">
-        <v>50</v>
-      </c>
-      <c r="C77">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>182</v>
-      </c>
-      <c r="B78">
-        <v>50</v>
-      </c>
-      <c r="C78">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>183</v>
-      </c>
-      <c r="B79">
-        <v>50</v>
-      </c>
-      <c r="C79">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>184</v>
-      </c>
-      <c r="B80">
-        <v>50</v>
-      </c>
-      <c r="C80">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>185</v>
-      </c>
-      <c r="B81">
-        <v>50</v>
-      </c>
-      <c r="C81">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>186</v>
-      </c>
-      <c r="B82">
-        <v>50</v>
-      </c>
-      <c r="C82">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>187</v>
-      </c>
-      <c r="B83">
-        <v>50</v>
-      </c>
-      <c r="C83">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>188</v>
-      </c>
-      <c r="B84">
-        <v>50</v>
-      </c>
-      <c r="C84">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>189</v>
-      </c>
-      <c r="B85">
-        <v>50</v>
-      </c>
-      <c r="C85">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>190</v>
-      </c>
-      <c r="B86">
-        <v>50</v>
-      </c>
-      <c r="C86">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>191</v>
-      </c>
-      <c r="B87">
-        <v>50</v>
-      </c>
-      <c r="C87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>192</v>
-      </c>
-      <c r="B88">
-        <v>50</v>
-      </c>
-      <c r="C88">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>193</v>
-      </c>
-      <c r="B89">
-        <v>50</v>
-      </c>
-      <c r="C89">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>194</v>
-      </c>
-      <c r="B90">
-        <v>50</v>
-      </c>
-      <c r="C90">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>195</v>
-      </c>
-      <c r="B91">
-        <v>50</v>
-      </c>
-      <c r="C91">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>196</v>
-      </c>
-      <c r="B92">
-        <v>50</v>
-      </c>
-      <c r="C92">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>197</v>
-      </c>
-      <c r="B93">
-        <v>50</v>
-      </c>
-      <c r="C93">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>198</v>
-      </c>
-      <c r="B94">
-        <v>50</v>
-      </c>
-      <c r="C94">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>199</v>
-      </c>
-      <c r="B95">
-        <v>50</v>
-      </c>
-      <c r="C95">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>200</v>
-      </c>
-      <c r="B96">
-        <v>50</v>
-      </c>
-      <c r="C96">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>201</v>
-      </c>
-      <c r="B97">
-        <v>50</v>
-      </c>
-      <c r="C97">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>202</v>
-      </c>
-      <c r="B98">
-        <v>50</v>
-      </c>
-      <c r="C98">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>203</v>
-      </c>
-      <c r="B99">
-        <v>50</v>
-      </c>
-      <c r="C99">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>204</v>
-      </c>
-      <c r="B100">
-        <v>50</v>
-      </c>
-      <c r="C100">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>205</v>
-      </c>
-      <c r="B101">
-        <v>50</v>
-      </c>
-      <c r="C101">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>105</v>
-      </c>
-      <c r="C102">
-        <f>AVERAGE(C2:C101)</f>
-        <v>5.21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E341D5C-C7AA-4732-8307-18B4F6565E34}">
-  <dimension ref="A1:C102"/>
-  <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B2">
-        <v>75</v>
-      </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B3">
-        <v>75</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B4">
-        <v>75</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B5">
-        <v>75</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B6">
-        <v>75</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>211</v>
-      </c>
-      <c r="B7">
-        <v>75</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B8">
-        <v>75</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>213</v>
-      </c>
-      <c r="B9">
-        <v>75</v>
-      </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B10">
-        <v>75</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>215</v>
-      </c>
-      <c r="B11">
-        <v>75</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>216</v>
-      </c>
-      <c r="B12">
-        <v>75</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>217</v>
-      </c>
-      <c r="B13">
-        <v>75</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>218</v>
-      </c>
-      <c r="B14">
-        <v>75</v>
-      </c>
-      <c r="C14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>219</v>
-      </c>
-      <c r="B15">
-        <v>75</v>
-      </c>
-      <c r="C15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>220</v>
-      </c>
-      <c r="B16">
-        <v>75</v>
-      </c>
-      <c r="C16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>221</v>
-      </c>
-      <c r="B17">
-        <v>75</v>
-      </c>
-      <c r="C17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>222</v>
-      </c>
-      <c r="B18">
-        <v>75</v>
-      </c>
-      <c r="C18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>223</v>
-      </c>
-      <c r="B19">
-        <v>75</v>
-      </c>
-      <c r="C19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>224</v>
-      </c>
-      <c r="B20">
-        <v>75</v>
-      </c>
-      <c r="C20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>225</v>
-      </c>
-      <c r="B21">
-        <v>75</v>
-      </c>
-      <c r="C21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>226</v>
-      </c>
-      <c r="B22">
-        <v>75</v>
-      </c>
-      <c r="C22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>227</v>
-      </c>
-      <c r="B23">
-        <v>75</v>
-      </c>
-      <c r="C23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>228</v>
-      </c>
-      <c r="B24">
-        <v>75</v>
-      </c>
-      <c r="C24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>229</v>
-      </c>
-      <c r="B25">
-        <v>75</v>
-      </c>
-      <c r="C25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>230</v>
-      </c>
-      <c r="B26">
-        <v>75</v>
-      </c>
-      <c r="C26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>231</v>
-      </c>
-      <c r="B27">
-        <v>75</v>
-      </c>
-      <c r="C27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>232</v>
-      </c>
-      <c r="B28">
-        <v>75</v>
-      </c>
-      <c r="C28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>233</v>
-      </c>
-      <c r="B29">
-        <v>75</v>
-      </c>
-      <c r="C29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>234</v>
-      </c>
-      <c r="B30">
-        <v>75</v>
-      </c>
-      <c r="C30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>235</v>
-      </c>
-      <c r="B31">
-        <v>75</v>
-      </c>
-      <c r="C31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>236</v>
-      </c>
-      <c r="B32">
-        <v>75</v>
-      </c>
-      <c r="C32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>237</v>
-      </c>
-      <c r="B33">
-        <v>75</v>
-      </c>
-      <c r="C33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>238</v>
-      </c>
-      <c r="B34">
-        <v>75</v>
-      </c>
-      <c r="C34">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>239</v>
-      </c>
-      <c r="B35">
-        <v>75</v>
-      </c>
-      <c r="C35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>240</v>
-      </c>
-      <c r="B36">
-        <v>75</v>
-      </c>
-      <c r="C36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>241</v>
-      </c>
-      <c r="B37">
-        <v>75</v>
-      </c>
-      <c r="C37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>242</v>
-      </c>
-      <c r="B38">
-        <v>75</v>
-      </c>
-      <c r="C38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>243</v>
-      </c>
-      <c r="B39">
-        <v>75</v>
-      </c>
-      <c r="C39">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>244</v>
-      </c>
-      <c r="B40">
-        <v>75</v>
-      </c>
-      <c r="C40">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>245</v>
-      </c>
-      <c r="B41">
-        <v>75</v>
-      </c>
-      <c r="C41">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>246</v>
-      </c>
-      <c r="B42">
-        <v>75</v>
-      </c>
-      <c r="C42">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>247</v>
-      </c>
-      <c r="B43">
-        <v>75</v>
-      </c>
-      <c r="C43">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>248</v>
-      </c>
-      <c r="B44">
-        <v>75</v>
-      </c>
-      <c r="C44">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>249</v>
-      </c>
-      <c r="B45">
-        <v>75</v>
-      </c>
-      <c r="C45">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>250</v>
-      </c>
-      <c r="B46">
-        <v>75</v>
-      </c>
-      <c r="C46">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>251</v>
-      </c>
-      <c r="B47">
-        <v>75</v>
-      </c>
-      <c r="C47">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>252</v>
-      </c>
-      <c r="B48">
-        <v>75</v>
-      </c>
-      <c r="C48">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>253</v>
-      </c>
-      <c r="B49">
-        <v>75</v>
-      </c>
-      <c r="C49">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>254</v>
-      </c>
-      <c r="B50">
-        <v>75</v>
-      </c>
-      <c r="C50">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>255</v>
-      </c>
-      <c r="B51">
-        <v>75</v>
-      </c>
-      <c r="C51">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>256</v>
-      </c>
-      <c r="B52">
-        <v>75</v>
-      </c>
-      <c r="C52">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>257</v>
-      </c>
-      <c r="B53">
-        <v>75</v>
-      </c>
-      <c r="C53">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>258</v>
-      </c>
-      <c r="B54">
-        <v>75</v>
-      </c>
-      <c r="C54">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>259</v>
-      </c>
-      <c r="B55">
-        <v>75</v>
-      </c>
-      <c r="C55">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>260</v>
-      </c>
-      <c r="B56">
-        <v>75</v>
-      </c>
-      <c r="C56">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>261</v>
-      </c>
-      <c r="B57">
-        <v>75</v>
-      </c>
-      <c r="C57">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>262</v>
-      </c>
-      <c r="B58">
-        <v>75</v>
-      </c>
-      <c r="C58">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>263</v>
-      </c>
-      <c r="B59">
-        <v>75</v>
-      </c>
-      <c r="C59">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>264</v>
-      </c>
-      <c r="B60">
-        <v>75</v>
-      </c>
-      <c r="C60">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>265</v>
-      </c>
-      <c r="B61">
-        <v>75</v>
-      </c>
-      <c r="C61">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>266</v>
-      </c>
-      <c r="B62">
-        <v>75</v>
-      </c>
-      <c r="C62">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>267</v>
-      </c>
-      <c r="B63">
-        <v>75</v>
-      </c>
-      <c r="C63">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>268</v>
-      </c>
-      <c r="B64">
-        <v>75</v>
-      </c>
-      <c r="C64">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>269</v>
-      </c>
-      <c r="B65">
-        <v>75</v>
-      </c>
-      <c r="C65">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>270</v>
-      </c>
-      <c r="B66">
-        <v>75</v>
-      </c>
-      <c r="C66">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>271</v>
-      </c>
-      <c r="B67">
-        <v>75</v>
-      </c>
-      <c r="C67">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>272</v>
-      </c>
-      <c r="B68">
-        <v>75</v>
-      </c>
-      <c r="C68">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>273</v>
-      </c>
-      <c r="B69">
-        <v>75</v>
-      </c>
-      <c r="C69">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>274</v>
-      </c>
-      <c r="B70">
-        <v>75</v>
-      </c>
-      <c r="C70">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>275</v>
-      </c>
-      <c r="B71">
-        <v>75</v>
-      </c>
-      <c r="C71">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>276</v>
-      </c>
-      <c r="B72">
-        <v>75</v>
-      </c>
-      <c r="C72">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>277</v>
-      </c>
-      <c r="B73">
-        <v>75</v>
-      </c>
-      <c r="C73">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>278</v>
-      </c>
-      <c r="B74">
-        <v>75</v>
-      </c>
-      <c r="C74">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>279</v>
-      </c>
-      <c r="B75">
-        <v>75</v>
-      </c>
-      <c r="C75">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>280</v>
-      </c>
-      <c r="B76">
-        <v>75</v>
-      </c>
-      <c r="C76">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>281</v>
-      </c>
-      <c r="B77">
-        <v>75</v>
-      </c>
-      <c r="C77">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>282</v>
-      </c>
-      <c r="B78">
-        <v>75</v>
-      </c>
-      <c r="C78">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>283</v>
-      </c>
-      <c r="B79">
-        <v>75</v>
-      </c>
-      <c r="C79">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>284</v>
-      </c>
-      <c r="B80">
-        <v>75</v>
-      </c>
-      <c r="C80">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>285</v>
-      </c>
-      <c r="B81">
-        <v>75</v>
-      </c>
-      <c r="C81">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>286</v>
-      </c>
-      <c r="B82">
-        <v>75</v>
-      </c>
-      <c r="C82">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>287</v>
-      </c>
-      <c r="B83">
-        <v>75</v>
-      </c>
-      <c r="C83">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>288</v>
-      </c>
-      <c r="B84">
-        <v>75</v>
-      </c>
-      <c r="C84">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>289</v>
-      </c>
-      <c r="B85">
-        <v>75</v>
-      </c>
-      <c r="C85">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>290</v>
-      </c>
-      <c r="B86">
-        <v>75</v>
-      </c>
-      <c r="C86">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>291</v>
-      </c>
-      <c r="B87">
-        <v>75</v>
-      </c>
-      <c r="C87">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>292</v>
-      </c>
-      <c r="B88">
-        <v>75</v>
-      </c>
-      <c r="C88">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>293</v>
-      </c>
-      <c r="B89">
-        <v>75</v>
-      </c>
-      <c r="C89">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>294</v>
-      </c>
-      <c r="B90">
-        <v>75</v>
-      </c>
-      <c r="C90">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>295</v>
-      </c>
-      <c r="B91">
-        <v>75</v>
-      </c>
-      <c r="C91">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>296</v>
-      </c>
-      <c r="B92">
-        <v>75</v>
-      </c>
-      <c r="C92">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>297</v>
-      </c>
-      <c r="B93">
-        <v>75</v>
-      </c>
-      <c r="C93">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>298</v>
-      </c>
-      <c r="B94">
-        <v>75</v>
-      </c>
-      <c r="C94">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>299</v>
-      </c>
-      <c r="B95">
-        <v>75</v>
-      </c>
-      <c r="C95">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>300</v>
-      </c>
-      <c r="B96">
-        <v>75</v>
-      </c>
-      <c r="C96">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>301</v>
-      </c>
-      <c r="B97">
-        <v>75</v>
-      </c>
-      <c r="C97">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>302</v>
-      </c>
-      <c r="B98">
-        <v>75</v>
-      </c>
-      <c r="C98">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>303</v>
-      </c>
-      <c r="B99">
-        <v>75</v>
-      </c>
-      <c r="C99">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>304</v>
-      </c>
-      <c r="B100">
-        <v>75</v>
-      </c>
-      <c r="C100">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>305</v>
-      </c>
-      <c r="B101">
-        <v>75</v>
-      </c>
-      <c r="C101">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>105</v>
-      </c>
-      <c r="C102">
-        <f>AVERAGE(C2:C101)</f>
-        <v>5.86</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E987BB4-246A-4AFD-B018-A5EE5BB763AF}">
-  <dimension ref="A1:C102"/>
-  <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
         <v>306</v>
       </c>
       <c r="B2">
@@ -25671,7 +27091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7B60B7-2733-4EC6-8A60-E1314C052140}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
@@ -26805,7 +28225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E16AB31-EC4D-47FC-AE34-38995BCFC40C}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
@@ -27939,7 +29359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5141F33B-AF26-4816-BC86-C4831F0526C3}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
